--- a/data/pca/factorExposure/factorExposure_2012-09-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-17.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002008975364473581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00175716518575988</v>
+      </c>
+      <c r="C2">
+        <v>0.02854738197805751</v>
+      </c>
+      <c r="D2">
+        <v>0.004820183435509173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003349814861877937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007311162381796215</v>
+      </c>
+      <c r="C4">
+        <v>0.08318667889617246</v>
+      </c>
+      <c r="D4">
+        <v>0.06974052249327244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.004527935044714397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01502955965215521</v>
+      </c>
+      <c r="C6">
+        <v>0.1164382106871579</v>
+      </c>
+      <c r="D6">
+        <v>0.02412472077216834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001293879922665788</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005069273047403305</v>
+      </c>
+      <c r="C7">
+        <v>0.05807761869891614</v>
+      </c>
+      <c r="D7">
+        <v>0.03522606711482789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001116268566420286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.006090399261789881</v>
+      </c>
+      <c r="C8">
+        <v>0.03534580409918122</v>
+      </c>
+      <c r="D8">
+        <v>0.04019191383429963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001295113865560744</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005430012192929071</v>
+      </c>
+      <c r="C9">
+        <v>0.07031309557917846</v>
+      </c>
+      <c r="D9">
+        <v>0.07562639458163267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002939471671855107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004771702605921083</v>
+      </c>
+      <c r="C10">
+        <v>0.05509120003274957</v>
+      </c>
+      <c r="D10">
+        <v>-0.1884334752358325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001637289542896835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005824288472455424</v>
+      </c>
+      <c r="C11">
+        <v>0.07889765527451084</v>
+      </c>
+      <c r="D11">
+        <v>0.0664073146279362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001083020904225778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004525398999503364</v>
+      </c>
+      <c r="C12">
+        <v>0.06428296271281958</v>
+      </c>
+      <c r="D12">
+        <v>0.05182498100741396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001629645148847582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008525726796051399</v>
+      </c>
+      <c r="C13">
+        <v>0.06751807986157868</v>
+      </c>
+      <c r="D13">
+        <v>0.06256280117984001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001897097398475306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007543255801762852</v>
+      </c>
+      <c r="C14">
+        <v>0.04149537023849647</v>
+      </c>
+      <c r="D14">
+        <v>0.01346153292341716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001674346239684529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005945235043063814</v>
+      </c>
+      <c r="C15">
+        <v>0.03971004180841303</v>
+      </c>
+      <c r="D15">
+        <v>0.03036665720693264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.000390974328095804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005213847736613412</v>
+      </c>
+      <c r="C16">
+        <v>0.06368743967076441</v>
+      </c>
+      <c r="D16">
+        <v>0.05845883830758146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002361951224111801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008858097366886515</v>
+      </c>
+      <c r="C20">
+        <v>0.06289911948921829</v>
+      </c>
+      <c r="D20">
+        <v>0.05301060325477958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005779004798330444</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009498123816507708</v>
+      </c>
+      <c r="C21">
+        <v>0.0190225951948816</v>
+      </c>
+      <c r="D21">
+        <v>0.04270068162667953</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01933498590215286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006829821662036057</v>
+      </c>
+      <c r="C22">
+        <v>0.08650674880009077</v>
+      </c>
+      <c r="D22">
+        <v>0.1247456713952859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01900816345953781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006524619633824126</v>
+      </c>
+      <c r="C23">
+        <v>0.08687877817625562</v>
+      </c>
+      <c r="D23">
+        <v>0.1258674017101918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0021260637388726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005758617569219784</v>
+      </c>
+      <c r="C24">
+        <v>0.07581627453220884</v>
+      </c>
+      <c r="D24">
+        <v>0.06875179482422593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003564595326524091</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003293235174371679</v>
+      </c>
+      <c r="C25">
+        <v>0.07706619788330797</v>
+      </c>
+      <c r="D25">
+        <v>0.06812041189751693</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002082935490104098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003720812360102944</v>
+      </c>
+      <c r="C26">
+        <v>0.03790728967300454</v>
+      </c>
+      <c r="D26">
+        <v>0.02609998450351256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005906747781379255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001565814891273538</v>
+      </c>
+      <c r="C28">
+        <v>0.1055873647415261</v>
+      </c>
+      <c r="D28">
+        <v>-0.3239739264672253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0006811824026083709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002808010364052363</v>
+      </c>
+      <c r="C29">
+        <v>0.04735026842064334</v>
+      </c>
+      <c r="D29">
+        <v>0.01197670921637244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003565846351610019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009777675216952903</v>
+      </c>
+      <c r="C30">
+        <v>0.1407985551565742</v>
+      </c>
+      <c r="D30">
+        <v>0.1126282908317943</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002136307641575204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006440078470174784</v>
+      </c>
+      <c r="C31">
+        <v>0.04298940440226652</v>
+      </c>
+      <c r="D31">
+        <v>0.0335670216644734</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005387377932684783</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003842080107279263</v>
+      </c>
+      <c r="C32">
+        <v>0.03970624908347876</v>
+      </c>
+      <c r="D32">
+        <v>0.02320814621856223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0001349841302952413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.009252071578744123</v>
+      </c>
+      <c r="C33">
+        <v>0.08796332733978984</v>
+      </c>
+      <c r="D33">
+        <v>0.06756671960349987</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00201147997230717</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004339976771974405</v>
+      </c>
+      <c r="C34">
+        <v>0.05719908816600582</v>
+      </c>
+      <c r="D34">
+        <v>0.05956993147375929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002115599865844306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005543783093404677</v>
+      </c>
+      <c r="C35">
+        <v>0.039947255377763</v>
+      </c>
+      <c r="D35">
+        <v>0.02071501159332647</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004884146296965083</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001472974361071277</v>
+      </c>
+      <c r="C36">
+        <v>0.02347179482646152</v>
+      </c>
+      <c r="D36">
+        <v>0.02790507795493601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.003386241267775886</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009379223823759711</v>
+      </c>
+      <c r="C38">
+        <v>0.03944922714359019</v>
+      </c>
+      <c r="D38">
+        <v>0.01357812972259911</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01102284887023988</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.00108973044485533</v>
+      </c>
+      <c r="C39">
+        <v>0.1124746549788956</v>
+      </c>
+      <c r="D39">
+        <v>0.07759103080045117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003442478644238081</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003805345501925771</v>
+      </c>
+      <c r="C40">
+        <v>0.08990483110925132</v>
+      </c>
+      <c r="D40">
+        <v>0.01904897660939252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.001876169926666844</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007309181676700428</v>
+      </c>
+      <c r="C41">
+        <v>0.03911341072037591</v>
+      </c>
+      <c r="D41">
+        <v>0.04102797200633616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001648405119729071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003809941146295504</v>
+      </c>
+      <c r="C43">
+        <v>0.05229325981027484</v>
+      </c>
+      <c r="D43">
+        <v>0.0301320507190256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00676813847542924</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00277702939640776</v>
+      </c>
+      <c r="C44">
+        <v>0.1029243545302681</v>
+      </c>
+      <c r="D44">
+        <v>0.0699168733027007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001311028793978419</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001753901864719231</v>
+      </c>
+      <c r="C46">
+        <v>0.03263427376993062</v>
+      </c>
+      <c r="D46">
+        <v>0.03516099079169137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0009346698132889785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002225292504673784</v>
+      </c>
+      <c r="C47">
+        <v>0.03463202179651841</v>
+      </c>
+      <c r="D47">
+        <v>0.02394048490174384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003714652567380401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006863164586883112</v>
+      </c>
+      <c r="C48">
+        <v>0.02999318641232147</v>
+      </c>
+      <c r="D48">
+        <v>0.0371574568696184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003895998014071077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01820167773654398</v>
+      </c>
+      <c r="C49">
+        <v>0.1906438252364265</v>
+      </c>
+      <c r="D49">
+        <v>0.00415642865319174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0008275142660147199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003658206109190242</v>
+      </c>
+      <c r="C50">
+        <v>0.04190005925249796</v>
+      </c>
+      <c r="D50">
+        <v>0.04076262667001388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0009536407020564937</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00465787514790518</v>
+      </c>
+      <c r="C51">
+        <v>0.02658403436470668</v>
+      </c>
+      <c r="D51">
+        <v>0.02304086516281536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.007110585649044102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02195441606716492</v>
+      </c>
+      <c r="C53">
+        <v>0.1715927961146919</v>
+      </c>
+      <c r="D53">
+        <v>0.02105656776144874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.004484003203361375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009417935685919789</v>
+      </c>
+      <c r="C54">
+        <v>0.05491406643251528</v>
+      </c>
+      <c r="D54">
+        <v>0.04315106635145408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001231599203237785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01006990043701144</v>
+      </c>
+      <c r="C55">
+        <v>0.1075275472568128</v>
+      </c>
+      <c r="D55">
+        <v>0.03837761850502014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00723931650439401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02096841236401209</v>
+      </c>
+      <c r="C56">
+        <v>0.1747308580554182</v>
+      </c>
+      <c r="D56">
+        <v>0.01485106435417992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003178335040191996</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01940548705638284</v>
+      </c>
+      <c r="C58">
+        <v>0.1037536817781351</v>
+      </c>
+      <c r="D58">
+        <v>0.07253845752505494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.001500150429031211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.0103071986294976</v>
+      </c>
+      <c r="C59">
+        <v>0.1697690809911868</v>
+      </c>
+      <c r="D59">
+        <v>-0.3414490519006871</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005155612559509747</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02543910846712776</v>
+      </c>
+      <c r="C60">
+        <v>0.2271333957541264</v>
+      </c>
+      <c r="D60">
+        <v>0.01688313083483811</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01055815943254195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001708928682214632</v>
+      </c>
+      <c r="C61">
+        <v>0.09381321744153935</v>
+      </c>
+      <c r="D61">
+        <v>0.05814429737128867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1469095872790745</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1501528387446992</v>
+      </c>
+      <c r="C62">
+        <v>0.09820230648694764</v>
+      </c>
+      <c r="D62">
+        <v>0.01936054376423839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00119041720375964</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006605917248673208</v>
+      </c>
+      <c r="C63">
+        <v>0.05241247185020515</v>
+      </c>
+      <c r="D63">
+        <v>0.03559809423809154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.007784160687588329</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01619771251645053</v>
+      </c>
+      <c r="C64">
+        <v>0.1054379708464931</v>
+      </c>
+      <c r="D64">
+        <v>0.05410281751694304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.006769298926684981</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.0175964561280927</v>
+      </c>
+      <c r="C65">
+        <v>0.1202710025072065</v>
+      </c>
+      <c r="D65">
+        <v>0.0318898910602635</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001855977502725561</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01366335352074977</v>
+      </c>
+      <c r="C66">
+        <v>0.1600676119066551</v>
+      </c>
+      <c r="D66">
+        <v>0.109494964043859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.006425270730289696</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01589670928664991</v>
+      </c>
+      <c r="C67">
+        <v>0.0718555183940824</v>
+      </c>
+      <c r="D67">
+        <v>0.02374015500737942</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.003844936531099151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0009711478803724054</v>
+      </c>
+      <c r="C68">
+        <v>0.08757374390676301</v>
+      </c>
+      <c r="D68">
+        <v>-0.2565967641946194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004187548179925275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006619609725534591</v>
+      </c>
+      <c r="C69">
+        <v>0.0521390834410316</v>
+      </c>
+      <c r="D69">
+        <v>0.03857477423171947</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001092690620941618</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002437436860567481</v>
+      </c>
+      <c r="C70">
+        <v>0.007473656239710811</v>
+      </c>
+      <c r="D70">
+        <v>0.0005820249678794845</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001502362753550216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005582847270516798</v>
+      </c>
+      <c r="C71">
+        <v>0.09193119839358369</v>
+      </c>
+      <c r="D71">
+        <v>-0.3012347557590421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.002631216138138273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.0173226110510091</v>
+      </c>
+      <c r="C72">
+        <v>0.156335243357993</v>
+      </c>
+      <c r="D72">
+        <v>0.01165850574257427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.007121602395054649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03214406754970733</v>
+      </c>
+      <c r="C73">
+        <v>0.2819324754044225</v>
+      </c>
+      <c r="D73">
+        <v>0.05231057164372981</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00588800430421943</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002170845663616635</v>
+      </c>
+      <c r="C74">
+        <v>0.1018903527263512</v>
+      </c>
+      <c r="D74">
+        <v>0.03539251791267442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.001788650978335274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01094286244797138</v>
+      </c>
+      <c r="C75">
+        <v>0.1205617197269802</v>
+      </c>
+      <c r="D75">
+        <v>0.02791319558204397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01058137468392541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.022744814631303</v>
+      </c>
+      <c r="C76">
+        <v>0.1463448598199536</v>
+      </c>
+      <c r="D76">
+        <v>0.05778101341574047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.004516077188694279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02119583875005016</v>
+      </c>
+      <c r="C77">
+        <v>0.1135171055430713</v>
+      </c>
+      <c r="D77">
+        <v>0.05617136678230276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005466708304484869</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01494332120599013</v>
+      </c>
+      <c r="C78">
+        <v>0.09767026396401307</v>
+      </c>
+      <c r="D78">
+        <v>0.08094921025673606</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02616681151217336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03889615737043355</v>
+      </c>
+      <c r="C79">
+        <v>0.1555165001438018</v>
+      </c>
+      <c r="D79">
+        <v>0.03342682498183973</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006469767736246307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009885917653394772</v>
+      </c>
+      <c r="C80">
+        <v>0.03880655693868418</v>
+      </c>
+      <c r="D80">
+        <v>0.03248466548350705</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004137066857337075</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.0159628787866249</v>
+      </c>
+      <c r="C81">
+        <v>0.1283496356233434</v>
+      </c>
+      <c r="D81">
+        <v>0.04105648499346335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007154205230056779</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02010584433636023</v>
+      </c>
+      <c r="C82">
+        <v>0.1382495940199395</v>
+      </c>
+      <c r="D82">
+        <v>0.03856149027191054</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004116374378225043</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.0123621699229506</v>
+      </c>
+      <c r="C83">
+        <v>0.06385217051660157</v>
+      </c>
+      <c r="D83">
+        <v>0.04485989746056884</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01038625894661623</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01281277277579868</v>
+      </c>
+      <c r="C84">
+        <v>0.03890198249714785</v>
+      </c>
+      <c r="D84">
+        <v>-0.006891247220988974</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01774839132311866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02926464725727158</v>
+      </c>
+      <c r="C85">
+        <v>0.1229065110198764</v>
+      </c>
+      <c r="D85">
+        <v>0.0398707657833882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002644601870550735</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004304560957541305</v>
+      </c>
+      <c r="C86">
+        <v>0.04926711772364026</v>
+      </c>
+      <c r="D86">
+        <v>0.03142977008570295</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0004454825640638238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01156336001258992</v>
+      </c>
+      <c r="C87">
+        <v>0.1267432157964215</v>
+      </c>
+      <c r="D87">
+        <v>0.07853260492161346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009518367853604879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003030662998288633</v>
+      </c>
+      <c r="C88">
+        <v>0.06272550007954075</v>
+      </c>
+      <c r="D88">
+        <v>0.02977971438100325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.009540176946173293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002016285266171154</v>
+      </c>
+      <c r="C89">
+        <v>0.1397933859657655</v>
+      </c>
+      <c r="D89">
+        <v>-0.3153104180025706</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0009552395606492645</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.00652762405188455</v>
+      </c>
+      <c r="C90">
+        <v>0.1210337225479688</v>
+      </c>
+      <c r="D90">
+        <v>-0.3116675232276151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001180165874232594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01067183700915134</v>
+      </c>
+      <c r="C91">
+        <v>0.09873809171899173</v>
+      </c>
+      <c r="D91">
+        <v>0.02769548288346273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005210272780690205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003519050675134502</v>
+      </c>
+      <c r="C92">
+        <v>0.1342343127773801</v>
+      </c>
+      <c r="D92">
+        <v>-0.3241050741853824</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0005793284665325673</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004010771371479375</v>
+      </c>
+      <c r="C93">
+        <v>0.1058475638869751</v>
+      </c>
+      <c r="D93">
+        <v>-0.29747694894997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009550877920014821</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02235440601810303</v>
+      </c>
+      <c r="C94">
+        <v>0.1417188320025693</v>
+      </c>
+      <c r="D94">
+        <v>0.05418418254752832</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006456004963442495</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01680328802138102</v>
+      </c>
+      <c r="C95">
+        <v>0.1203934075099979</v>
+      </c>
+      <c r="D95">
+        <v>0.06672807907294087</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01595186756204605</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03687871727853363</v>
+      </c>
+      <c r="C97">
+        <v>0.2249332895776769</v>
+      </c>
+      <c r="D97">
+        <v>0.005598782296281131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01105514010916512</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0391422509592824</v>
+      </c>
+      <c r="C98">
+        <v>0.260108079031456</v>
+      </c>
+      <c r="D98">
+        <v>0.02924937884104726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9872125569822732</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9808962853259094</v>
+      </c>
+      <c r="C99">
+        <v>-0.1221981885873089</v>
+      </c>
+      <c r="D99">
+        <v>-0.02466158540528207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0006069501862573305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002849689191137532</v>
+      </c>
+      <c r="C101">
+        <v>0.04746870171148285</v>
+      </c>
+      <c r="D101">
+        <v>0.01234112673066931</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
